--- a/ARMInspectorGUI/Tmp/frm1.xlsx
+++ b/ARMInspectorGUI/Tmp/frm1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\MyProjects_2021\ARMInspector\ARMInspectorGUI\Tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E72B47-6593-47B3-BB2B-93905B5A1EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE507853-7BAD-4822-88C7-D8F3D7E1374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="92">
   <si>
     <t>№ п/п</t>
   </si>
@@ -2005,9 +2005,9 @@
         <f>Брест!AC9+Барановичи!AC9+Пинск!AC9</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="19" t="e">
+      <c r="AD9" s="19">
         <f>Брест!AD9+Барановичи!AD9+Пинск!AD9</f>
-        <v>#VALUE!</v>
+        <v>25</v>
       </c>
       <c r="AE9" s="20" t="e">
         <f>Брест!AE9+Барановичи!AE9+Пинск!AE9</f>
@@ -2253,9 +2253,9 @@
         <f>Брест!AC11+Барановичи!AC11+Пинск!AC11</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="19" t="e">
+      <c r="AD11" s="19">
         <f>Брест!AD11+Барановичи!AD11+Пинск!AD11</f>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="AE11" s="20" t="e">
         <f>Брест!AE11+Барановичи!AE11+Пинск!AE11</f>
@@ -2377,9 +2377,9 @@
         <f>Брест!AC12+Барановичи!AC12+Пинск!AC12</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="19" t="e">
+      <c r="AD12" s="19">
         <f>Брест!AD12+Барановичи!AD12+Пинск!AD12</f>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="AE12" s="20" t="e">
         <f>Брест!AE12+Барановичи!AE12+Пинск!AE12</f>
@@ -2625,9 +2625,9 @@
         <f>Брест!AC14+Барановичи!AC14+Пинск!AC14</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="19" t="e">
+      <c r="AD14" s="19">
         <f>Брест!AD14+Барановичи!AD14+Пинск!AD14</f>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="AE14" s="20" t="e">
         <f>Брест!AE14+Барановичи!AE14+Пинск!AE14</f>
@@ -2873,9 +2873,9 @@
         <f>Брест!AC16+Барановичи!AC16+Пинск!AC16</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="19" t="e">
+      <c r="AD16" s="19">
         <f>Брест!AD16+Барановичи!AD16+Пинск!AD16</f>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="AE16" s="20" t="e">
         <f>Брест!AE16+Барановичи!AE16+Пинск!AE16</f>
@@ -3493,9 +3493,9 @@
         <f>Брест!AC21+Барановичи!AC21+Пинск!AC21</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="19" t="e">
+      <c r="AD21" s="19">
         <f>Брест!AD21+Барановичи!AD21+Пинск!AD21</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="AE21" s="20" t="e">
         <f>Брест!AE21+Барановичи!AE21+Пинск!AE21</f>
@@ -3617,9 +3617,9 @@
         <f>Брест!AC22+Барановичи!AC22+Пинск!AC22</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="19" t="e">
+      <c r="AD22" s="19">
         <f>Брест!AD22+Барановичи!AD22+Пинск!AD22</f>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="AE22" s="20" t="e">
         <f>Брест!AE22+Барановичи!AE22+Пинск!AE22</f>
@@ -3902,9 +3902,9 @@
         <f>Брест!AC25+Барановичи!AC25+Пинск!AC25</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="23" t="e">
+      <c r="AD25" s="23">
         <f>Брест!AD25+Барановичи!AD25+Пинск!AD25</f>
-        <v>#VALUE!</v>
+        <v>24.2</v>
       </c>
       <c r="AE25" s="24" t="e">
         <f>Брест!AE25+Барановичи!AE25+Пинск!AE25</f>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="I26" s="21">
         <f>Брест!I26+Барановичи!I26+Пинск!I26</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="J26" s="21">
         <f>Брест!J26+Барановичи!J26+Пинск!J26</f>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="R26" s="21">
         <f>Брест!R26+Барановичи!R26+Пинск!R26</f>
-        <v>46.4</v>
+        <v>23.2</v>
       </c>
       <c r="S26" s="21">
         <f>Брест!S26+Барановичи!S26+Пинск!S26</f>
@@ -4026,9 +4026,9 @@
         <f>Брест!AC26+Барановичи!AC26+Пинск!AC26</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="23" t="e">
+      <c r="AD26" s="23">
         <f>Брест!AD26+Барановичи!AD26+Пинск!AD26</f>
-        <v>#VALUE!</v>
+        <v>314.2</v>
       </c>
       <c r="AE26" s="24" t="e">
         <f>Брест!AE26+Барановичи!AE26+Пинск!AE26</f>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="AD28" s="19">
         <f>Брест!AD28+Барановичи!AD28+Пинск!AD28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="20">
         <f>Брест!AE28+Барановичи!AE28+Пинск!AE28</f>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="AD29" s="19">
         <f>Брест!AD29+Барановичи!AD29+Пинск!AD29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="20">
         <f>Брест!AE29+Барановичи!AE29+Пинск!AE29</f>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="AD30" s="19">
         <f>Брест!AD30+Барановичи!AD30+Пинск!AD30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="20">
         <f>Брест!AE30+Барановичи!AE30+Пинск!AE30</f>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="AD31" s="19">
         <f>Брест!AD31+Барановичи!AD31+Пинск!AD31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" s="20">
         <f>Брест!AE31+Барановичи!AE31+Пинск!AE31</f>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="AD32" s="19">
         <f>Брест!AD32+Барановичи!AD32+Пинск!AD32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32" s="20">
         <f>Брест!AE32+Барановичи!AE32+Пинск!AE32</f>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="AD33" s="19">
         <f>Брест!AD33+Барановичи!AD33+Пинск!AD33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33" s="20">
         <f>Брест!AE33+Барановичи!AE33+Пинск!AE33</f>
@@ -5465,7 +5465,9 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="19"/>
+      <c r="AD9" s="19">
+        <v>5</v>
+      </c>
       <c r="AE9" s="20" t="s">
         <v>91</v>
       </c>
@@ -5504,7 +5506,9 @@
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="19"/>
+      <c r="AD10" s="19">
+        <v>1</v>
+      </c>
       <c r="AE10" s="20" t="s">
         <v>91</v>
       </c>
@@ -5545,8 +5549,8 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="19" t="s">
-        <v>91</v>
+      <c r="AD11" s="19">
+        <v>1</v>
       </c>
       <c r="AE11" s="20" t="s">
         <v>91</v>
@@ -5588,8 +5592,8 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="19" t="s">
-        <v>91</v>
+      <c r="AD12" s="19">
+        <v>1</v>
       </c>
       <c r="AE12" s="20" t="s">
         <v>91</v>
@@ -5629,7 +5633,9 @@
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
       <c r="AC13" s="18"/>
-      <c r="AD13" s="19"/>
+      <c r="AD13" s="19">
+        <v>1</v>
+      </c>
       <c r="AE13" s="20"/>
     </row>
     <row r="14" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5668,8 +5674,8 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="19" t="s">
-        <v>91</v>
+      <c r="AD14" s="19">
+        <v>1</v>
       </c>
       <c r="AE14" s="20" t="s">
         <v>91</v>
@@ -5709,7 +5715,9 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
       <c r="AC15" s="18"/>
-      <c r="AD15" s="19"/>
+      <c r="AD15" s="19">
+        <v>1</v>
+      </c>
       <c r="AE15" s="20"/>
     </row>
     <row r="16" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5746,7 +5754,9 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="19"/>
+      <c r="AD16" s="19">
+        <v>1</v>
+      </c>
       <c r="AE16" s="20" t="s">
         <v>91</v>
       </c>
@@ -5785,7 +5795,9 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="18"/>
-      <c r="AD17" s="19"/>
+      <c r="AD17" s="19">
+        <v>1</v>
+      </c>
       <c r="AE17" s="20"/>
     </row>
     <row r="18" spans="1:31" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5822,7 +5834,9 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="19"/>
+      <c r="AD18" s="19">
+        <v>1</v>
+      </c>
       <c r="AE18" s="20" t="s">
         <v>91</v>
       </c>
@@ -5861,7 +5875,9 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="18"/>
-      <c r="AD19" s="19"/>
+      <c r="AD19" s="19">
+        <v>1</v>
+      </c>
       <c r="AE19" s="20" t="s">
         <v>91</v>
       </c>
@@ -5900,7 +5916,9 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="18"/>
-      <c r="AD20" s="19"/>
+      <c r="AD20" s="19">
+        <v>1</v>
+      </c>
       <c r="AE20" s="20"/>
     </row>
     <row r="21" spans="1:31" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5937,7 +5955,9 @@
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
-      <c r="AD21" s="19"/>
+      <c r="AD21" s="19">
+        <v>1</v>
+      </c>
       <c r="AE21" s="20" t="s">
         <v>91</v>
       </c>
@@ -5976,7 +5996,9 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="19"/>
+      <c r="AD22" s="19">
+        <v>1</v>
+      </c>
       <c r="AE22" s="20" t="s">
         <v>91</v>
       </c>
@@ -6015,7 +6037,9 @@
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="19"/>
+      <c r="AD23" s="19">
+        <v>1</v>
+      </c>
       <c r="AE23" s="20" t="s">
         <v>91</v>
       </c>
@@ -6093,8 +6117,8 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="22"/>
-      <c r="AD25" s="23" t="s">
-        <v>91</v>
+      <c r="AD25" s="23">
+        <v>1</v>
       </c>
       <c r="AE25" s="24" t="s">
         <v>91</v>
@@ -6134,7 +6158,9 @@
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="22"/>
-      <c r="AD26" s="23"/>
+      <c r="AD26" s="23">
+        <v>1</v>
+      </c>
       <c r="AE26" s="24" t="s">
         <v>91</v>
       </c>
@@ -6210,7 +6236,9 @@
       <c r="AA28" s="17"/>
       <c r="AB28" s="17"/>
       <c r="AC28" s="18"/>
-      <c r="AD28" s="19"/>
+      <c r="AD28" s="19">
+        <v>1</v>
+      </c>
       <c r="AE28" s="20"/>
     </row>
     <row r="29" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -6247,7 +6275,9 @@
       <c r="AA29" s="17"/>
       <c r="AB29" s="17"/>
       <c r="AC29" s="18"/>
-      <c r="AD29" s="19"/>
+      <c r="AD29" s="19">
+        <v>1</v>
+      </c>
       <c r="AE29" s="20"/>
     </row>
     <row r="30" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6284,7 +6314,9 @@
       <c r="AA30" s="17"/>
       <c r="AB30" s="17"/>
       <c r="AC30" s="18"/>
-      <c r="AD30" s="19"/>
+      <c r="AD30" s="19">
+        <v>1</v>
+      </c>
       <c r="AE30" s="20"/>
     </row>
     <row r="31" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6321,7 +6353,9 @@
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
       <c r="AC31" s="18"/>
-      <c r="AD31" s="19"/>
+      <c r="AD31" s="19">
+        <v>1</v>
+      </c>
       <c r="AE31" s="20"/>
     </row>
     <row r="32" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6358,7 +6392,9 @@
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
       <c r="AC32" s="18"/>
-      <c r="AD32" s="19"/>
+      <c r="AD32" s="19">
+        <v>1</v>
+      </c>
       <c r="AE32" s="20"/>
     </row>
     <row r="33" spans="1:31" ht="24" x14ac:dyDescent="0.25">
@@ -6395,7 +6431,9 @@
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
       <c r="AC33" s="18"/>
-      <c r="AD33" s="19"/>
+      <c r="AD33" s="19">
+        <v>1</v>
+      </c>
       <c r="AE33" s="20"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -7115,7 +7153,7 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -7129,7 +7167,7 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
       <c r="AD11" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE11" s="20" t="s">
         <v>91</v>
@@ -7158,7 +7196,7 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -7172,7 +7210,7 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
       <c r="AD12" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE12" s="20" t="s">
         <v>91</v>
@@ -7242,7 +7280,7 @@
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -7256,7 +7294,7 @@
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
       <c r="AD14" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE14" s="20" t="s">
         <v>91</v>
@@ -7691,7 +7729,7 @@
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21">
-        <v>46.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
@@ -7705,7 +7743,7 @@
       <c r="AB25" s="21"/>
       <c r="AC25" s="22"/>
       <c r="AD25" s="23">
-        <v>46.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AE25" s="24" t="s">
         <v>91</v>
@@ -7724,7 +7762,9 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="I26" s="21">
+        <v>290</v>
+      </c>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -7734,7 +7774,7 @@
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21">
-        <v>46.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
@@ -7748,7 +7788,7 @@
       <c r="AB26" s="21"/>
       <c r="AC26" s="22"/>
       <c r="AD26" s="23">
-        <v>46.4</v>
+        <v>307.39999999999998</v>
       </c>
       <c r="AE26" s="24" t="s">
         <v>91</v>
@@ -8654,8 +8694,8 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="19" t="s">
-        <v>91</v>
+      <c r="AD9" s="19">
+        <v>17</v>
       </c>
       <c r="AE9" s="20" t="s">
         <v>91</v>
@@ -8697,8 +8737,8 @@
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="19" t="s">
-        <v>91</v>
+      <c r="AD10" s="19">
+        <v>1</v>
       </c>
       <c r="AE10" s="20" t="s">
         <v>91</v>
@@ -8728,7 +8768,9 @@
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
+      <c r="R11" s="17">
+        <v>2</v>
+      </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
@@ -8740,8 +8782,8 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="19" t="s">
-        <v>91</v>
+      <c r="AD11" s="19">
+        <v>2</v>
       </c>
       <c r="AE11" s="20" t="s">
         <v>91</v>
@@ -8771,7 +8813,9 @@
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
+      <c r="R12" s="17">
+        <v>2</v>
+      </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
@@ -8783,8 +8827,8 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="19" t="s">
-        <v>91</v>
+      <c r="AD12" s="19">
+        <v>2</v>
       </c>
       <c r="AE12" s="20" t="s">
         <v>91</v>
@@ -8857,7 +8901,9 @@
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="R14" s="17">
+        <v>2</v>
+      </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
@@ -8869,8 +8915,8 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="19" t="s">
-        <v>91</v>
+      <c r="AD14" s="19">
+        <v>2</v>
       </c>
       <c r="AE14" s="20" t="s">
         <v>91</v>
@@ -8955,8 +9001,8 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="19" t="s">
-        <v>91</v>
+      <c r="AD16" s="19">
+        <v>2</v>
       </c>
       <c r="AE16" s="20" t="s">
         <v>91</v>
@@ -9041,8 +9087,8 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="19" t="s">
-        <v>91</v>
+      <c r="AD18" s="19">
+        <v>6</v>
       </c>
       <c r="AE18" s="20" t="s">
         <v>91</v>
@@ -9084,8 +9130,8 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="18"/>
-      <c r="AD19" s="19" t="s">
-        <v>91</v>
+      <c r="AD19" s="19">
+        <v>4</v>
       </c>
       <c r="AE19" s="20" t="s">
         <v>91</v>
@@ -9127,8 +9173,8 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="18"/>
-      <c r="AD20" s="19" t="s">
-        <v>91</v>
+      <c r="AD20" s="19">
+        <v>2</v>
       </c>
       <c r="AE20" s="20" t="s">
         <v>91</v>
@@ -9170,8 +9216,8 @@
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
-      <c r="AD21" s="19" t="s">
-        <v>91</v>
+      <c r="AD21" s="19">
+        <v>8</v>
       </c>
       <c r="AE21" s="20" t="s">
         <v>91</v>
@@ -9213,8 +9259,8 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="19" t="s">
-        <v>91</v>
+      <c r="AD22" s="19">
+        <v>2</v>
       </c>
       <c r="AE22" s="20" t="s">
         <v>91</v>
@@ -9256,8 +9302,8 @@
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="19" t="s">
-        <v>91</v>
+      <c r="AD23" s="19">
+        <v>6</v>
       </c>
       <c r="AE23" s="20" t="s">
         <v>91</v>
@@ -9324,7 +9370,9 @@
       </c>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
+      <c r="R25" s="21">
+        <v>5.8</v>
+      </c>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
@@ -9336,8 +9384,8 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="22"/>
-      <c r="AD25" s="23" t="s">
-        <v>91</v>
+      <c r="AD25" s="23">
+        <v>5.8</v>
       </c>
       <c r="AE25" s="24" t="s">
         <v>91</v>
@@ -9367,7 +9415,9 @@
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
+      <c r="R26" s="21">
+        <v>5.8</v>
+      </c>
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
@@ -9379,8 +9429,8 @@
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="22"/>
-      <c r="AD26" s="23" t="s">
-        <v>91</v>
+      <c r="AD26" s="23">
+        <v>5.8</v>
       </c>
       <c r="AE26" s="24" t="s">
         <v>91</v>

--- a/ARMInspectorGUI/Tmp/frm1.xlsx
+++ b/ARMInspectorGUI/Tmp/frm1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\MyProjects_2021\ARMInspector\ARMInspectorGUI\Tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE507853-7BAD-4822-88C7-D8F3D7E1374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073FDC8D-F9C3-4CAC-B6CE-DD98C2742197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="93">
   <si>
     <t>№ п/п</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>290.00</t>
   </si>
 </sst>
 </file>
@@ -1945,9 +1948,9 @@
         <f>Брест!N9+Барановичи!N9+Пинск!N9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="17" t="e">
+      <c r="O9" s="17">
         <f>Брест!O9+Барановичи!O9+Пинск!O9</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P9" s="17">
         <f>Брест!P9+Барановичи!P9+Пинск!P9</f>
@@ -2005,9 +2008,9 @@
         <f>Брест!AC9+Барановичи!AC9+Пинск!AC9</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD9" s="19" t="e">
         <f>Брест!AD9+Барановичи!AD9+Пинск!AD9</f>
-        <v>25</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE9" s="20" t="e">
         <f>Брест!AE9+Барановичи!AE9+Пинск!AE9</f>
@@ -2193,9 +2196,9 @@
         <f>Брест!N11+Барановичи!N11+Пинск!N11</f>
         <v>0</v>
       </c>
-      <c r="O11" s="17" t="e">
+      <c r="O11" s="17">
         <f>Брест!O11+Барановичи!O11+Пинск!O11</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P11" s="17">
         <f>Брест!P11+Барановичи!P11+Пинск!P11</f>
@@ -2253,9 +2256,9 @@
         <f>Брест!AC11+Барановичи!AC11+Пинск!AC11</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="19">
+      <c r="AD11" s="19" t="e">
         <f>Брест!AD11+Барановичи!AD11+Пинск!AD11</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE11" s="20" t="e">
         <f>Брест!AE11+Барановичи!AE11+Пинск!AE11</f>
@@ -2317,9 +2320,9 @@
         <f>Брест!N12+Барановичи!N12+Пинск!N12</f>
         <v>0</v>
       </c>
-      <c r="O12" s="17" t="e">
+      <c r="O12" s="17">
         <f>Брест!O12+Барановичи!O12+Пинск!O12</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P12" s="17">
         <f>Брест!P12+Барановичи!P12+Пинск!P12</f>
@@ -2377,9 +2380,9 @@
         <f>Брест!AC12+Барановичи!AC12+Пинск!AC12</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="19">
+      <c r="AD12" s="19" t="e">
         <f>Брест!AD12+Барановичи!AD12+Пинск!AD12</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE12" s="20" t="e">
         <f>Брест!AE12+Барановичи!AE12+Пинск!AE12</f>
@@ -2565,9 +2568,9 @@
         <f>Брест!N14+Барановичи!N14+Пинск!N14</f>
         <v>0</v>
       </c>
-      <c r="O14" s="17" t="e">
+      <c r="O14" s="17">
         <f>Брест!O14+Барановичи!O14+Пинск!O14</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P14" s="17">
         <f>Брест!P14+Барановичи!P14+Пинск!P14</f>
@@ -2625,9 +2628,9 @@
         <f>Брест!AC14+Барановичи!AC14+Пинск!AC14</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="19">
+      <c r="AD14" s="19" t="e">
         <f>Брест!AD14+Барановичи!AD14+Пинск!AD14</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE14" s="20" t="e">
         <f>Брест!AE14+Барановичи!AE14+Пинск!AE14</f>
@@ -2873,9 +2876,9 @@
         <f>Брест!AC16+Барановичи!AC16+Пинск!AC16</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="19">
+      <c r="AD16" s="19" t="e">
         <f>Брест!AD16+Барановичи!AD16+Пинск!AD16</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE16" s="20" t="e">
         <f>Брест!AE16+Барановичи!AE16+Пинск!AE16</f>
@@ -3493,9 +3496,9 @@
         <f>Брест!AC21+Барановичи!AC21+Пинск!AC21</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="19">
+      <c r="AD21" s="19" t="e">
         <f>Брест!AD21+Барановичи!AD21+Пинск!AD21</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE21" s="20" t="e">
         <f>Брест!AE21+Барановичи!AE21+Пинск!AE21</f>
@@ -3617,9 +3620,9 @@
         <f>Брест!AC22+Барановичи!AC22+Пинск!AC22</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="19">
+      <c r="AD22" s="19" t="e">
         <f>Брест!AD22+Барановичи!AD22+Пинск!AD22</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE22" s="20" t="e">
         <f>Брест!AE22+Барановичи!AE22+Пинск!AE22</f>
@@ -3842,9 +3845,9 @@
         <f>Брест!N25+Барановичи!N25+Пинск!N25</f>
         <v>0</v>
       </c>
-      <c r="O25" s="21" t="e">
+      <c r="O25" s="21">
         <f>Брест!O25+Барановичи!O25+Пинск!O25</f>
-        <v>#VALUE!</v>
+        <v>290</v>
       </c>
       <c r="P25" s="21">
         <f>Брест!P25+Барановичи!P25+Пинск!P25</f>
@@ -3902,9 +3905,9 @@
         <f>Брест!AC25+Барановичи!AC25+Пинск!AC25</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="23">
+      <c r="AD25" s="23" t="e">
         <f>Брест!AD25+Барановичи!AD25+Пинск!AD25</f>
-        <v>24.2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE25" s="24" t="e">
         <f>Брест!AE25+Барановичи!AE25+Пинск!AE25</f>
@@ -3944,7 +3947,7 @@
       </c>
       <c r="I26" s="21">
         <f>Брест!I26+Барановичи!I26+Пинск!I26</f>
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="J26" s="21">
         <f>Брест!J26+Барановичи!J26+Пинск!J26</f>
@@ -3966,9 +3969,9 @@
         <f>Брест!N26+Барановичи!N26+Пинск!N26</f>
         <v>0</v>
       </c>
-      <c r="O26" s="21" t="e">
+      <c r="O26" s="21">
         <f>Брест!O26+Барановичи!O26+Пинск!O26</f>
-        <v>#VALUE!</v>
+        <v>290</v>
       </c>
       <c r="P26" s="21">
         <f>Брест!P26+Барановичи!P26+Пинск!P26</f>
@@ -3978,9 +3981,9 @@
         <f>Брест!Q26+Барановичи!Q26+Пинск!Q26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="21" t="e">
         <f>Брест!R26+Барановичи!R26+Пинск!R26</f>
-        <v>23.2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S26" s="21">
         <f>Брест!S26+Барановичи!S26+Пинск!S26</f>
@@ -4026,9 +4029,9 @@
         <f>Брест!AC26+Барановичи!AC26+Пинск!AC26</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="23">
+      <c r="AD26" s="23" t="e">
         <f>Брест!AD26+Барановичи!AD26+Пинск!AD26</f>
-        <v>314.2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE26" s="24" t="e">
         <f>Брест!AE26+Барановичи!AE26+Пинск!AE26</f>
@@ -4189,7 +4192,7 @@
       </c>
       <c r="AD28" s="19">
         <f>Брест!AD28+Барановичи!AD28+Пинск!AD28</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="20">
         <f>Брест!AE28+Барановичи!AE28+Пинск!AE28</f>
@@ -4313,7 +4316,7 @@
       </c>
       <c r="AD29" s="19">
         <f>Брест!AD29+Барановичи!AD29+Пинск!AD29</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="20">
         <f>Брест!AE29+Барановичи!AE29+Пинск!AE29</f>
@@ -4437,7 +4440,7 @@
       </c>
       <c r="AD30" s="19">
         <f>Брест!AD30+Барановичи!AD30+Пинск!AD30</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="20">
         <f>Брест!AE30+Барановичи!AE30+Пинск!AE30</f>
@@ -4561,7 +4564,7 @@
       </c>
       <c r="AD31" s="19">
         <f>Брест!AD31+Барановичи!AD31+Пинск!AD31</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="20">
         <f>Брест!AE31+Барановичи!AE31+Пинск!AE31</f>
@@ -4685,7 +4688,7 @@
       </c>
       <c r="AD32" s="19">
         <f>Брест!AD32+Барановичи!AD32+Пинск!AD32</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="20">
         <f>Брест!AE32+Барановичи!AE32+Пинск!AE32</f>
@@ -4809,7 +4812,7 @@
       </c>
       <c r="AD33" s="19">
         <f>Брест!AD33+Барановичи!AD33+Пинск!AD33</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="20">
         <f>Брест!AE33+Барановичи!AE33+Пинск!AE33</f>
@@ -5465,9 +5468,7 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="19">
-        <v>5</v>
-      </c>
+      <c r="AD9" s="19"/>
       <c r="AE9" s="20" t="s">
         <v>91</v>
       </c>
@@ -5506,9 +5507,7 @@
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD10" s="19"/>
       <c r="AE10" s="20" t="s">
         <v>91</v>
       </c>
@@ -5549,8 +5548,8 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="19">
-        <v>1</v>
+      <c r="AD11" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="AE11" s="20" t="s">
         <v>91</v>
@@ -5592,8 +5591,8 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="19">
-        <v>1</v>
+      <c r="AD12" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="AE12" s="20" t="s">
         <v>91</v>
@@ -5633,9 +5632,7 @@
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
       <c r="AC13" s="18"/>
-      <c r="AD13" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD13" s="19"/>
       <c r="AE13" s="20"/>
     </row>
     <row r="14" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5674,8 +5671,8 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="19">
-        <v>1</v>
+      <c r="AD14" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="AE14" s="20" t="s">
         <v>91</v>
@@ -5715,9 +5712,7 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
       <c r="AC15" s="18"/>
-      <c r="AD15" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD15" s="19"/>
       <c r="AE15" s="20"/>
     </row>
     <row r="16" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5754,9 +5749,7 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD16" s="19"/>
       <c r="AE16" s="20" t="s">
         <v>91</v>
       </c>
@@ -5795,9 +5788,7 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="18"/>
-      <c r="AD17" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD17" s="19"/>
       <c r="AE17" s="20"/>
     </row>
     <row r="18" spans="1:31" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5834,9 +5825,7 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD18" s="19"/>
       <c r="AE18" s="20" t="s">
         <v>91</v>
       </c>
@@ -5875,9 +5864,7 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="18"/>
-      <c r="AD19" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD19" s="19"/>
       <c r="AE19" s="20" t="s">
         <v>91</v>
       </c>
@@ -5916,9 +5903,7 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="18"/>
-      <c r="AD20" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD20" s="19"/>
       <c r="AE20" s="20"/>
     </row>
     <row r="21" spans="1:31" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5955,9 +5940,7 @@
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
-      <c r="AD21" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD21" s="19"/>
       <c r="AE21" s="20" t="s">
         <v>91</v>
       </c>
@@ -5996,9 +5979,7 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD22" s="19"/>
       <c r="AE22" s="20" t="s">
         <v>91</v>
       </c>
@@ -6037,9 +6018,7 @@
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD23" s="19"/>
       <c r="AE23" s="20" t="s">
         <v>91</v>
       </c>
@@ -6117,8 +6096,8 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="22"/>
-      <c r="AD25" s="23">
-        <v>1</v>
+      <c r="AD25" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="AE25" s="24" t="s">
         <v>91</v>
@@ -6158,9 +6137,7 @@
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="22"/>
-      <c r="AD26" s="23">
-        <v>1</v>
-      </c>
+      <c r="AD26" s="23"/>
       <c r="AE26" s="24" t="s">
         <v>91</v>
       </c>
@@ -6236,9 +6213,7 @@
       <c r="AA28" s="17"/>
       <c r="AB28" s="17"/>
       <c r="AC28" s="18"/>
-      <c r="AD28" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD28" s="19"/>
       <c r="AE28" s="20"/>
     </row>
     <row r="29" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -6275,9 +6250,7 @@
       <c r="AA29" s="17"/>
       <c r="AB29" s="17"/>
       <c r="AC29" s="18"/>
-      <c r="AD29" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD29" s="19"/>
       <c r="AE29" s="20"/>
     </row>
     <row r="30" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6314,9 +6287,7 @@
       <c r="AA30" s="17"/>
       <c r="AB30" s="17"/>
       <c r="AC30" s="18"/>
-      <c r="AD30" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD30" s="19"/>
       <c r="AE30" s="20"/>
     </row>
     <row r="31" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6353,9 +6324,7 @@
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
       <c r="AC31" s="18"/>
-      <c r="AD31" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD31" s="19"/>
       <c r="AE31" s="20"/>
     </row>
     <row r="32" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6392,9 +6361,7 @@
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
       <c r="AC32" s="18"/>
-      <c r="AD32" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD32" s="19"/>
       <c r="AE32" s="20"/>
     </row>
     <row r="33" spans="1:31" ht="24" x14ac:dyDescent="0.25">
@@ -6431,9 +6398,7 @@
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
       <c r="AC33" s="18"/>
-      <c r="AD33" s="19">
-        <v>1</v>
-      </c>
+      <c r="AD33" s="19"/>
       <c r="AE33" s="20"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -7082,8 +7047,8 @@
       <c r="AA9" s="17"/>
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="19">
-        <v>3</v>
+      <c r="AD9" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="AE9" s="20" t="s">
         <v>91</v>
@@ -7152,8 +7117,8 @@
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="17">
-        <v>2</v>
+      <c r="R11" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -7166,8 +7131,8 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="19">
-        <v>2</v>
+      <c r="AD11" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="AE11" s="20" t="s">
         <v>91</v>
@@ -7195,8 +7160,8 @@
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="17">
-        <v>2</v>
+      <c r="R12" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -7209,8 +7174,8 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="19">
-        <v>2</v>
+      <c r="AD12" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="AE12" s="20" t="s">
         <v>91</v>
@@ -7279,8 +7244,8 @@
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="17">
-        <v>2</v>
+      <c r="R14" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -7293,8 +7258,8 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="19">
-        <v>2</v>
+      <c r="AD14" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="AE14" s="20" t="s">
         <v>91</v>
@@ -7375,8 +7340,8 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="19">
-        <v>1</v>
+      <c r="AD16" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="AE16" s="20" t="s">
         <v>91</v>
@@ -7580,8 +7545,8 @@
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
-      <c r="AD21" s="19">
-        <v>1</v>
+      <c r="AD21" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="AE21" s="20" t="s">
         <v>91</v>
@@ -7621,8 +7586,8 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="19">
-        <v>1</v>
+      <c r="AD22" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="AE22" s="20" t="s">
         <v>91</v>
@@ -7728,8 +7693,8 @@
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="21">
-        <v>17.399999999999999</v>
+      <c r="R25" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
@@ -7742,8 +7707,8 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="22"/>
-      <c r="AD25" s="23">
-        <v>17.399999999999999</v>
+      <c r="AD25" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="AE25" s="24" t="s">
         <v>91</v>
@@ -7762,9 +7727,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="21">
-        <v>290</v>
-      </c>
+      <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -7773,8 +7736,8 @@
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="21">
-        <v>17.399999999999999</v>
+      <c r="R26" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
@@ -7787,8 +7750,8 @@
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="22"/>
-      <c r="AD26" s="23">
-        <v>307.39999999999998</v>
+      <c r="AD26" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="AE26" s="24" t="s">
         <v>91</v>
@@ -8163,10 +8126,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="G35:K35"/>
     <mergeCell ref="A3:AE3"/>
     <mergeCell ref="W5:X5"/>
@@ -8180,6 +8139,10 @@
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:N5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.3" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8194,7 +8157,7 @@
   </sheetPr>
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
@@ -8677,8 +8640,8 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="17" t="s">
-        <v>91</v>
+      <c r="O9" s="17">
+        <v>1</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
@@ -8695,10 +8658,10 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="18"/>
       <c r="AD9" s="19">
-        <v>17</v>
-      </c>
-      <c r="AE9" s="20" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -8737,11 +8700,11 @@
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="19">
+      <c r="AD10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE10" s="20">
         <v>1</v>
-      </c>
-      <c r="AE10" s="20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8763,14 +8726,12 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="17" t="s">
-        <v>91</v>
+      <c r="O11" s="17">
+        <v>1</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="17">
-        <v>2</v>
-      </c>
+      <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
@@ -8783,10 +8744,10 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
       <c r="AD11" s="19">
-        <v>2</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8808,14 +8769,12 @@
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="17" t="s">
-        <v>91</v>
+      <c r="O12" s="17">
+        <v>1</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="17">
-        <v>2</v>
-      </c>
+      <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
@@ -8828,10 +8787,10 @@
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
       <c r="AD12" s="19">
-        <v>2</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="AE12" s="20">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8896,14 +8855,12 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="17" t="s">
-        <v>91</v>
+      <c r="O14" s="17">
+        <v>1</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="17">
-        <v>2</v>
-      </c>
+      <c r="R14" s="17"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
@@ -8916,10 +8873,10 @@
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
       <c r="AD14" s="19">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="AE14" s="20">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="36" x14ac:dyDescent="0.25">
@@ -9001,11 +8958,11 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="19">
+      <c r="AD16" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE16" s="20">
         <v>2</v>
-      </c>
-      <c r="AE16" s="20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -9087,11 +9044,11 @@
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="19">
+      <c r="AD18" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE18" s="20">
         <v>6</v>
-      </c>
-      <c r="AE18" s="20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9130,11 +9087,11 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="18"/>
-      <c r="AD19" s="19">
+      <c r="AD19" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE19" s="20">
         <v>4</v>
-      </c>
-      <c r="AE19" s="20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9173,11 +9130,11 @@
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="18"/>
-      <c r="AD20" s="19">
+      <c r="AD20" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE20" s="20">
         <v>2</v>
-      </c>
-      <c r="AE20" s="20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9216,11 +9173,11 @@
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
       <c r="AC21" s="18"/>
-      <c r="AD21" s="19">
+      <c r="AD21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE21" s="20">
         <v>8</v>
-      </c>
-      <c r="AE21" s="20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -9259,11 +9216,11 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="19">
+      <c r="AD22" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE22" s="20">
         <v>2</v>
-      </c>
-      <c r="AE22" s="20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9302,11 +9259,11 @@
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="19">
+      <c r="AD23" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE23" s="20">
         <v>6</v>
-      </c>
-      <c r="AE23" s="20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9365,14 +9322,12 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
-      <c r="O25" s="21" t="s">
-        <v>91</v>
+      <c r="O25" s="21">
+        <v>290</v>
       </c>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="21">
-        <v>5.8</v>
-      </c>
+      <c r="R25" s="21"/>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
@@ -9384,11 +9339,11 @@
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="22"/>
-      <c r="AD25" s="23">
-        <v>5.8</v>
-      </c>
-      <c r="AE25" s="24" t="s">
-        <v>91</v>
+      <c r="AD25" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE25" s="24">
+        <v>1006.3</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="24" x14ac:dyDescent="0.25">
@@ -9410,14 +9365,12 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
-      <c r="O26" s="21" t="s">
-        <v>91</v>
+      <c r="O26" s="21">
+        <v>290</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="21">
-        <v>5.8</v>
-      </c>
+      <c r="R26" s="21"/>
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
@@ -9429,11 +9382,11 @@
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="22"/>
-      <c r="AD26" s="23">
-        <v>5.8</v>
-      </c>
-      <c r="AE26" s="24" t="s">
-        <v>91</v>
+      <c r="AD26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE26" s="24">
+        <v>426.3</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
